--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_26_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_26_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90025.11805798305</v>
+        <v>16130070.17043606</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90025.11805798305</v>
+        <v>16130070.17043606</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5418.247720305109</v>
+        <v>554149.7920555306</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5418.247720305109</v>
+        <v>554149.7920555306</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112707223.397535</v>
+        <v>45769280.24676601</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8963.846633607218</v>
+        <v>1072947.91883536</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16993.94106821739</v>
+        <v>1982517.098254204</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25078.89189890371</v>
+        <v>2892086.277673065</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33319.74301269333</v>
+        <v>3804055.321568167</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41568.58596102933</v>
+        <v>4715566.696387651</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49764.72747973825</v>
+        <v>5627078.07120682</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>58015.18193178674</v>
+        <v>6538589.446025984</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66230.16808509074</v>
+        <v>7450100.820845141</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>74307.42381447647</v>
+        <v>8351858.149506589</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82364.71400519674</v>
+        <v>9262543.610606896</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90401.71381998608</v>
+        <v>10172112.79002575</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98210.59400222321</v>
+        <v>11080309.28664733</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>106028.8429380721</v>
+        <v>11988801.98084917</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>114185.1144167859</v>
+        <v>12838655.75684906</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>122533.1702021909</v>
+        <v>13687741.44818861</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>361</v>
@@ -27055,10 +27055,10 @@
         <v>48.99999999960323</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>390</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>255</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>91</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
